--- a/Data/Processed/Angiosperms/missing_powo_ipni/Asparagaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Asparagaceae.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
